--- a/CreateScripts/Darrian/Records/SERVICE_ORDER_LINE.xlsx
+++ b/CreateScripts/Darrian/Records/SERVICE_ORDER_LINE.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_3D5BC171DE133949ABFC10CD71738DAC2D73F02E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8A5F4D8-A23E-4FC9-B659-79F6A7EEF960}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darri\Documents\GitHub\CIS3365\CreateScripts\Darrian\Records\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EAEE09-AE1C-4E62-84EC-83E2D83769A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15225" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SERVICE_ID</t>
   </si>
@@ -36,15 +40,37 @@
   <si>
     <t>SERVICE_RATE</t>
   </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
+    <t>LABOR_HOURS</t>
+  </si>
+  <si>
+    <t>ITEM_COST</t>
+  </si>
+  <si>
+    <t>ITEM_QTY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,8 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,27 +414,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14580</v>
+      </c>
+      <c r="B2">
+        <v>14580</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43550</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>3.5</v>
+      </c>
+      <c r="F2">
+        <v>350</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5964</v>
+      </c>
+      <c r="B3">
+        <v>5964</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44223</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4402</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5959</v>
+      </c>
+      <c r="B4">
+        <v>5959</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44214</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <f>F4/D4</f>
+        <v>48.788800000000002</v>
+      </c>
+      <c r="F4">
+        <v>4878.88</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5956</v>
+      </c>
+      <c r="B5">
+        <v>5956</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44208</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="0">F5/D5</f>
+        <v>1.3119000000000001</v>
+      </c>
+      <c r="F5">
+        <v>131.19</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5935</v>
+      </c>
+      <c r="B6">
+        <v>5935</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44175</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>16.237500000000001</v>
+      </c>
+      <c r="F6">
+        <v>1623.75</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -415,18 +595,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,13 +742,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A70D91D-65F6-4B53-97BA-373F4E18EAC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{782F9A4A-34AB-4E64-97FE-FECC71712F77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{782F9A4A-34AB-4E64-97FE-FECC71712F77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A70D91D-65F6-4B53-97BA-373F4E18EAC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937A1F75-4E89-4F26-873C-1BCBE7D63923}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937A1F75-4E89-4F26-873C-1BCBE7D63923}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="351fd5e3-c834-48b3-88b8-b9d0689c8e02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>